--- a/00_Raw_Assets/quotes.xlsx
+++ b/00_Raw_Assets/quotes.xlsx
@@ -1942,7 +1942,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3394,7 +3394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
